--- a/Results/Results_S7.xlsx
+++ b/Results/Results_S7.xlsx
@@ -404,25 +404,25 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>21.13602999992581</v>
+        <v>21.1360299999124</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.720534947672426E-07</v>
+        <v>-7.72051916934829E-07</v>
       </c>
       <c r="F2">
-        <v>0.240606021005506</v>
+        <v>0.2417821421664151</v>
       </c>
       <c r="G2">
-        <v>3691.547780274063</v>
+        <v>3695.204786682511</v>
       </c>
       <c r="H2">
-        <v>0.5725519824737757</v>
+        <v>0.5719853491229088</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>21.849809469974</v>
+        <v>21.84980946997159</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>3.86029E-07</v>
       </c>
       <c r="F3">
-        <v>0.28085790215449</v>
+        <v>0.2821717707289705</v>
       </c>
       <c r="G3">
-        <v>3756.913637480631</v>
+        <v>3773.474156720286</v>
       </c>
       <c r="H3">
-        <v>0.5815893464249655</v>
+        <v>0.5790369448021434</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>22.55953039997653</v>
+        <v>22.55953039997485</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.860244947672426E-07</v>
+        <v>3.86022916934829E-07</v>
       </c>
       <c r="F4">
-        <v>0.3010489120841895</v>
+        <v>0.3026597777944491</v>
       </c>
       <c r="G4">
-        <v>3912.131442661516</v>
+        <v>3914.675038632136</v>
       </c>
       <c r="H4">
-        <v>0.5766557369204535</v>
+        <v>0.576281049572319</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>2026</v>
       </c>
       <c r="B5">
-        <v>23.2241339198714</v>
+        <v>23.22413391990703</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3147084457806366</v>
+        <v>0.3158736445565552</v>
       </c>
       <c r="G5">
-        <v>4069.124520232294</v>
+        <v>4076.780433409805</v>
       </c>
       <c r="H5">
-        <v>0.5707403104623007</v>
+        <v>0.5696684994262113</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>2027</v>
       </c>
       <c r="B6">
-        <v>23.95526753995521</v>
+        <v>23.9552675399555</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3189391205560305</v>
+        <v>0.3200592976877066</v>
       </c>
       <c r="G6">
-        <v>4254.456603020712</v>
+        <v>4257.647815580628</v>
       </c>
       <c r="H6">
-        <v>0.5630629190798819</v>
+        <v>0.5626408894670084</v>
       </c>
     </row>
     <row r="7">
@@ -543,16 +543,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>14.662803998</v>
+        <v>0.5770523579999891</v>
       </c>
       <c r="F7">
-        <v>0.3640982589035757</v>
+        <v>0.3655146931944009</v>
       </c>
       <c r="G7">
-        <v>4443.910033824404</v>
+        <v>4455.774820691072</v>
       </c>
       <c r="H7">
-        <v>0.557309381410981</v>
+        <v>0.5558253842847056</v>
       </c>
     </row>
     <row r="8">
@@ -560,25 +560,25 @@
         <v>2029</v>
       </c>
       <c r="B8">
-        <v>25.65698091995407</v>
+        <v>25.65698091995749</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>23.71332689393637</v>
+        <v>14.662803998</v>
       </c>
       <c r="F8">
-        <v>0.3659204992982207</v>
+        <v>0.3661127750801957</v>
       </c>
       <c r="G8">
-        <v>4597.211899922722</v>
+        <v>4597.276055748865</v>
       </c>
       <c r="H8">
-        <v>0.5580987232801984</v>
+        <v>0.5580909349107631</v>
       </c>
     </row>
     <row r="9">
@@ -586,7 +586,7 @@
         <v>2030</v>
       </c>
       <c r="B9">
-        <v>26.73718129996476</v>
+        <v>26.73718129996622</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -595,16 +595,16 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>31.52177332642211</v>
+        <v>32.20124931477594</v>
       </c>
       <c r="F9">
-        <v>0.3855504340730691</v>
+        <v>0.386180324527109</v>
       </c>
       <c r="G9">
-        <v>4675.719049709597</v>
+        <v>4675.811406468223</v>
       </c>
       <c r="H9">
-        <v>0.5718303648211148</v>
+        <v>0.5718190700116709</v>
       </c>
     </row>
     <row r="10">
@@ -612,25 +612,25 @@
         <v>2031</v>
       </c>
       <c r="B10">
-        <v>27.09405198996805</v>
+        <v>27.09405198996807</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>88.08453853199444</v>
+        <v>86.41899574346111</v>
       </c>
       <c r="F10">
-        <v>0.38670497223762</v>
+        <v>0.3865908209481895</v>
       </c>
       <c r="G10">
-        <v>4754.162901550614</v>
+        <v>4757.105457017769</v>
       </c>
       <c r="H10">
-        <v>0.5699016325488359</v>
+        <v>0.5695491141571905</v>
       </c>
     </row>
     <row r="11">
@@ -638,25 +638,25 @@
         <v>2032</v>
       </c>
       <c r="B11">
-        <v>27.45095816996505</v>
+        <v>27.45095816996313</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>125.1063256920554</v>
+        <v>116.3109139457456</v>
       </c>
       <c r="F11">
-        <v>0.3795620401952499</v>
+        <v>0.3780578445903078</v>
       </c>
       <c r="G11">
-        <v>4882.815160101821</v>
+        <v>4875.291586712862</v>
       </c>
       <c r="H11">
-        <v>0.5621953170431423</v>
+        <v>0.5630628995561634</v>
       </c>
     </row>
     <row r="12">
@@ -664,25 +664,25 @@
         <v>2033</v>
       </c>
       <c r="B12">
-        <v>27.81457391999477</v>
+        <v>27.81457391999498</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>279.6721894527531</v>
+        <v>274.1592631083323</v>
       </c>
       <c r="F12">
-        <v>0.3362045357497549</v>
+        <v>0.3353575826160597</v>
       </c>
       <c r="G12">
-        <v>5103.251965289827</v>
+        <v>5065.234685496795</v>
       </c>
       <c r="H12">
-        <v>0.545036265290795</v>
+        <v>0.5491270522891271</v>
       </c>
     </row>
     <row r="13">
@@ -690,25 +690,25 @@
         <v>2034</v>
       </c>
       <c r="B13">
-        <v>28.16623758995971</v>
+        <v>28.16623758996121</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2.99999945548237</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>282.4989327543817</v>
+        <v>260.7024028676158</v>
       </c>
       <c r="F13">
-        <v>0.3221627017494383</v>
+        <v>0.3236666966834131</v>
       </c>
       <c r="G13">
-        <v>5219.809673242615</v>
+        <v>5231.405173578296</v>
       </c>
       <c r="H13">
-        <v>0.5396027700845742</v>
+        <v>0.5384067311822346</v>
       </c>
     </row>
     <row r="14">
@@ -716,25 +716,25 @@
         <v>2035</v>
       </c>
       <c r="B14">
-        <v>28.44839399992274</v>
+        <v>28.44839399996198</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>243.4978945260765</v>
+        <v>254.6208081453192</v>
       </c>
       <c r="F14">
-        <v>0.3196421818282681</v>
+        <v>0.3237615998969312</v>
       </c>
       <c r="G14">
-        <v>5319.520738611584</v>
+        <v>5339.21466325712</v>
       </c>
       <c r="H14">
-        <v>0.5347924258181929</v>
+        <v>0.5328198207825455</v>
       </c>
     </row>
     <row r="15">
@@ -742,25 +742,25 @@
         <v>2036</v>
       </c>
       <c r="B15">
-        <v>28.49488944995074</v>
+        <v>28.49488944995075</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>273.6616546098401</v>
+        <v>292.2713247900767</v>
       </c>
       <c r="F15">
-        <v>0.3058583152820459</v>
+        <v>0.3110630587953992</v>
       </c>
       <c r="G15">
-        <v>5413.113576473816</v>
+        <v>5417.962626924868</v>
       </c>
       <c r="H15">
-        <v>0.5264047954543888</v>
+        <v>0.5259336656983162</v>
       </c>
     </row>
     <row r="16">
@@ -768,25 +768,25 @@
         <v>2037</v>
       </c>
       <c r="B16">
-        <v>28.52573986994979</v>
+        <v>28.52573986994972</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>203.256870884163</v>
+        <v>210.8172857962811</v>
       </c>
       <c r="F16">
-        <v>0.2802642974857718</v>
+        <v>0.2858120738669336</v>
       </c>
       <c r="G16">
-        <v>5524.907868223588</v>
+        <v>5514.972687740342</v>
       </c>
       <c r="H16">
-        <v>0.516311593791728</v>
+        <v>0.5172417251197234</v>
       </c>
     </row>
     <row r="17">
@@ -794,25 +794,25 @@
         <v>2038</v>
       </c>
       <c r="B17">
-        <v>28.54553983997319</v>
+        <v>28.5455398399759</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>169.4805128324518</v>
+        <v>176.3400327650926</v>
       </c>
       <c r="F17">
-        <v>0.2697089790316151</v>
+        <v>0.2755856237523093</v>
       </c>
       <c r="G17">
-        <v>5557.989982902932</v>
+        <v>5566.585602776334</v>
       </c>
       <c r="H17">
-        <v>0.5135946615194129</v>
+        <v>0.5128015964712519</v>
       </c>
     </row>
     <row r="18">
@@ -820,25 +820,25 @@
         <v>2039</v>
       </c>
       <c r="B18">
-        <v>28.52921014994899</v>
+        <v>28.52921014994949</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>158.2327508257178</v>
+        <v>163.4850990038484</v>
       </c>
       <c r="F18">
-        <v>0.2696642155623258</v>
+        <v>0.2754038949529412</v>
       </c>
       <c r="G18">
-        <v>5676.203015686115</v>
+        <v>5685.15439485233</v>
       </c>
       <c r="H18">
-        <v>0.5026108134453416</v>
+        <v>0.5018194435630718</v>
       </c>
     </row>
     <row r="19">
@@ -846,25 +846,25 @@
         <v>2040</v>
       </c>
       <c r="B19">
-        <v>28.49762812995009</v>
+        <v>28.49762812995008</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>124.4805884823544</v>
+        <v>145.9223132966955</v>
       </c>
       <c r="F19">
-        <v>0.2722126796617241</v>
+        <v>0.2776940333582884</v>
       </c>
       <c r="G19">
-        <v>5719.094381108916</v>
+        <v>5738.589918072874</v>
       </c>
       <c r="H19">
-        <v>0.4982891736160591</v>
+        <v>0.4965963509642125</v>
       </c>
     </row>
     <row r="20">
@@ -872,25 +872,25 @@
         <v>2041</v>
       </c>
       <c r="B20">
-        <v>28.27933570994991</v>
+        <v>28.27933570994956</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>73.23244292847137</v>
+        <v>71.38904654452021</v>
       </c>
       <c r="F20">
-        <v>0.2699175692634269</v>
+        <v>0.2769542029011573</v>
       </c>
       <c r="G20">
-        <v>5690.710751557748</v>
+        <v>5724.266261662869</v>
       </c>
       <c r="H20">
-        <v>0.496938553803826</v>
+        <v>0.4940255120441333</v>
       </c>
     </row>
     <row r="21">
@@ -898,25 +898,25 @@
         <v>2042</v>
       </c>
       <c r="B21">
-        <v>28.04663652994901</v>
+        <v>28.04663652994937</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>18.14338679308067</v>
+        <v>39.33091134198768</v>
       </c>
       <c r="F21">
-        <v>0.2489943105624539</v>
+        <v>0.2579195429379323</v>
       </c>
       <c r="G21">
-        <v>5670.4029103147</v>
+        <v>5703.459761074591</v>
       </c>
       <c r="H21">
-        <v>0.4946145269312521</v>
+        <v>0.4917477759966714</v>
       </c>
     </row>
     <row r="22">
@@ -924,25 +924,25 @@
         <v>2043</v>
       </c>
       <c r="B22">
-        <v>27.78277931994824</v>
+        <v>27.78277931994786</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>36.044389875</v>
+        <v>30.12405280171151</v>
       </c>
       <c r="F22">
-        <v>0.237901780796945</v>
+        <v>0.247987002089462</v>
       </c>
       <c r="G22">
-        <v>5667.491886848705</v>
+        <v>5708.644878901238</v>
       </c>
       <c r="H22">
-        <v>0.4902129526540231</v>
+        <v>0.486679061481493</v>
       </c>
     </row>
     <row r="23">
@@ -950,25 +950,25 @@
         <v>2044</v>
       </c>
       <c r="B23">
-        <v>27.4935558299489</v>
+        <v>27.493555829949</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>14.19538719363769</v>
+        <v>10.67804252524875</v>
       </c>
       <c r="F23">
-        <v>0.2372888422680493</v>
+        <v>0.2475432192726494</v>
       </c>
       <c r="G23">
-        <v>5611.217190966609</v>
+        <v>5653.400613769043</v>
       </c>
       <c r="H23">
-        <v>0.4899749001733572</v>
+        <v>0.4863189026970341</v>
       </c>
     </row>
     <row r="24">
@@ -976,25 +976,25 @@
         <v>2045</v>
       </c>
       <c r="B24">
-        <v>27.18263807994782</v>
+        <v>27.18263807994779</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>4.1361180433549</v>
+        <v>0.153541385</v>
       </c>
       <c r="F24">
-        <v>0.2398882231495139</v>
+        <v>0.2475445761891555</v>
       </c>
       <c r="G24">
-        <v>5559.520336651739</v>
+        <v>5595.526865739282</v>
       </c>
       <c r="H24">
-        <v>0.4889385492619451</v>
+        <v>0.4857922896659422</v>
       </c>
     </row>
     <row r="25">
@@ -1002,25 +1002,25 @@
         <v>2046</v>
       </c>
       <c r="B25">
-        <v>26.78460247005306</v>
+        <v>26.78460247004762</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>34.90674216868438</v>
+        <v>48.588705508</v>
       </c>
       <c r="F25">
-        <v>0.2363107664560598</v>
+        <v>0.2439671194956984</v>
       </c>
       <c r="G25">
-        <v>5459.7359269379</v>
+        <v>5503.665282162981</v>
       </c>
       <c r="H25">
-        <v>0.4905842119194809</v>
+        <v>0.4866684490580261</v>
       </c>
     </row>
     <row r="26">
@@ -1028,25 +1028,25 @@
         <v>2047</v>
       </c>
       <c r="B26">
-        <v>26.37472910995556</v>
+        <v>26.37472910995696</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>137.7595753332479</v>
+        <v>127.5728948626793</v>
       </c>
       <c r="F26">
-        <v>0.2329543990647638</v>
+        <v>0.2406107521044039</v>
       </c>
       <c r="G26">
-        <v>5400.156030150459</v>
+        <v>5392.651014743664</v>
       </c>
       <c r="H26">
-        <v>0.4884067971869455</v>
+        <v>0.489086518631517</v>
       </c>
     </row>
     <row r="27">
@@ -1054,25 +1054,25 @@
         <v>2048</v>
       </c>
       <c r="B27">
-        <v>25.98391770995363</v>
+        <v>25.98391770995499</v>
       </c>
       <c r="C27">
-        <v>5.999999912420167</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>179.9969283117188</v>
+        <v>204.8591429804337</v>
       </c>
       <c r="F27">
-        <v>0.227903859737833</v>
+        <v>0.235379673115279</v>
       </c>
       <c r="G27">
-        <v>5343.522235960289</v>
+        <v>5347.939877339449</v>
       </c>
       <c r="H27">
-        <v>0.486269478492851</v>
+        <v>0.4858677978048204</v>
       </c>
     </row>
     <row r="28">
@@ -1080,25 +1080,25 @@
         <v>2049</v>
       </c>
       <c r="B28">
-        <v>25.60600485995759</v>
+        <v>25.60600485995852</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>11.00000009033469</v>
       </c>
       <c r="D28">
         <v>28</v>
       </c>
       <c r="E28">
-        <v>274.423267336878</v>
+        <v>266.1911040768323</v>
       </c>
       <c r="F28">
-        <v>0.2189625586689618</v>
+        <v>0.2246178450275679</v>
       </c>
       <c r="G28">
-        <v>5289.333103059364</v>
+        <v>5275.456998061773</v>
       </c>
       <c r="H28">
-        <v>0.4841064905733959</v>
+        <v>0.4853798423409817</v>
       </c>
     </row>
     <row r="29">
@@ -1106,25 +1106,25 @@
         <v>2050</v>
       </c>
       <c r="B29">
-        <v>25.22753591014257</v>
+        <v>25.22753590995961</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>283.2975499017506</v>
+        <v>266.7352401030083</v>
       </c>
       <c r="F29">
-        <v>0.2198727115128263</v>
+        <v>0.2252530815462508</v>
       </c>
       <c r="G29">
-        <v>5304.054198003528</v>
+        <v>5294.818652612466</v>
       </c>
       <c r="H29">
-        <v>0.4756274157160449</v>
+        <v>0.4764570340385941</v>
       </c>
     </row>
   </sheetData>
